--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_164.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_164.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,448 +488,466 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1252173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:18.660000', '0:00:20.740000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.46, 15.6)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[['E:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[('0:00:04.800000', '0:00:08.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1405405405405405</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2554347826086957</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'A:min', 'D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb/7', 'G:min', 'C', 'F', 'F']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(28.601746, 38.911405)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(53.473877, 62.15814)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:08.980000', '0:00:20.580000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[('0:00:23.040000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:49.060000', '0:00:59.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -933,272 +956,224 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.425</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(120.22, 121.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(68.98, 87.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
